--- a/data/trans_camb/P2A_senso_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2A_senso_R-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,17 +685,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 6,45</t>
+          <t>-2,88; 5,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 1,9</t>
+          <t>-4,66; 1,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 8,8</t>
+          <t>-1,88; 8,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,27 +705,27 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,75; 6,53</t>
+          <t>0,65; 6,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,09; 6,02</t>
+          <t>0,88; 5,5</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 3,18</t>
+          <t>-1,5; 3,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 2,92</t>
+          <t>-1,44; 2,74</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 4,81</t>
+          <t>0,09; 5,04</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-36,34; —</t>
+          <t>-43,8; —</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 1,93</t>
+          <t>-1,67; 1,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,02; -0,06</t>
+          <t>-3,1; -0,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 1,18</t>
+          <t>-2,11; 1,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,12; 3,55</t>
+          <t>0,09; 3,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 0,65</t>
+          <t>-1,8; 0,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 2,9</t>
+          <t>-0,37; 2,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 2,28</t>
+          <t>-0,24; 2,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,92; -0,0</t>
+          <t>-1,88; -0,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 1,57</t>
+          <t>-0,75; 1,51</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-50,11; 128,13</t>
+          <t>-51,72; 123,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-89,49; 7,7</t>
+          <t>-89,72; -0,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-65,31; 80,21</t>
+          <t>-66,53; 103,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 493,66</t>
+          <t>-13,74; 511,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,0; 154,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-28,51; 404,09</t>
+          <t>-33,98; 421,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-14,21; 175,58</t>
+          <t>-11,1; 171,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-80,71; 5,99</t>
+          <t>-79,78; 9,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-37,34; 123,94</t>
+          <t>-33,22; 121,02</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 1,38</t>
+          <t>-1,04; 1,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 0,47</t>
+          <t>-1,57; 0,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 2,31</t>
+          <t>-0,46; 2,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 1,67</t>
+          <t>-0,78; 1,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 0,7</t>
+          <t>-1,47; 0,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,39; 2,66</t>
+          <t>0,27; 2,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 1,05</t>
+          <t>-0,56; 1,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 0,28</t>
+          <t>-1,25; 0,24</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,07</t>
+          <t>0,24; 2,08</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-47,16; 143,99</t>
+          <t>-51,78; 140,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-77,68; 66,92</t>
+          <t>-76,94; 72,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-23,0; 241,43</t>
+          <t>-26,81; 228,77</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-33,34; 164,88</t>
+          <t>-37,53; 176,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-67,32; 67,21</t>
+          <t>-68,42; 82,92</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>15,83; 252,75</t>
+          <t>7,46; 255,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-27,23; 93,03</t>
+          <t>-29,31; 100,42</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-61,43; 26,33</t>
+          <t>-61,63; 28,54</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>8,74; 181,6</t>
+          <t>11,54; 182,16</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 1,1</t>
+          <t>-1,27; 1,22</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 0,97</t>
+          <t>-1,47; 0,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,09; 4,4</t>
+          <t>1,02; 4,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 1,27</t>
+          <t>-1,32; 1,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 0,36</t>
+          <t>-2,02; 0,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,47; 43,51</t>
+          <t>2,57; 43,07</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 0,8</t>
+          <t>-0,9; 0,81</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 0,42</t>
+          <t>-1,36; 0,38</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,5; 29,49</t>
+          <t>2,44; 28,86</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-72,52; 218,45</t>
+          <t>-74,63; 225,51</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-83,81; 174,87</t>
+          <t>-84,32; 217,97</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>44,99; 788,85</t>
+          <t>33,97; 663,33</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-64,56; 154,0</t>
+          <t>-62,92; 120,68</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-82,41; 64,91</t>
+          <t>-83,01; 62,11</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>130,05; 6290,57</t>
+          <t>135,11; 8095,09</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-50,82; 87,2</t>
+          <t>-53,17; 100,2</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-71,0; 63,39</t>
+          <t>-72,47; 49,8</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>157,47; 2861,36</t>
+          <t>153,34; 3689,8</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 1,47</t>
+          <t>-0,87; 1,5</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 0,95</t>
+          <t>-1,19; 0,91</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 1,45</t>
+          <t>-0,79; 1,41</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 2,02</t>
+          <t>-0,65; 2,03</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 0,19</t>
+          <t>-1,96; 0,16</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 1,77</t>
+          <t>-0,54; 1,78</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 1,39</t>
+          <t>-0,41; 1,36</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 0,23</t>
+          <t>-1,32; 0,23</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 1,27</t>
+          <t>-0,27; 1,31</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-49,45; 170,61</t>
+          <t>-49,0; 167,34</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-62,49; 102,64</t>
+          <t>-62,99; 117,78</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-40,25; 158,1</t>
+          <t>-44,11; 176,84</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-27,62; 145,38</t>
+          <t>-27,17; 159,06</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-76,03; 18,73</t>
+          <t>-74,89; 17,97</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-23,03; 128,13</t>
+          <t>-23,37; 136,75</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-19,45; 111,23</t>
+          <t>-21,03; 98,4</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-60,27; 19,61</t>
+          <t>-60,47; 19,35</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-16,46; 98,96</t>
+          <t>-14,49; 103,92</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 0,76</t>
+          <t>-0,48; 0,78</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 0,04</t>
+          <t>-1,12; 0,08</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,5</t>
+          <t>0,2; 1,6</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 1,27</t>
+          <t>-0,07; 1,23</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 0,07</t>
+          <t>-1,12; -0,02</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,3; 14,23</t>
+          <t>1,31; 14,01</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 0,78</t>
+          <t>-0,09; 0,83</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,92; -0,12</t>
+          <t>-0,95; -0,16</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,02; 8,66</t>
+          <t>1,07; 8,1</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-27,84; 60,76</t>
+          <t>-27,2; 62,78</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-59,64; 3,84</t>
+          <t>-59,67; 9,78</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>8,88; 120,73</t>
+          <t>9,71; 122,96</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 95,87</t>
+          <t>-4,73; 93,27</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-56,34; 9,85</t>
+          <t>-57,02; -0,27</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>75,58; 1017,38</t>
+          <t>73,35; 907,13</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 58,23</t>
+          <t>-5,35; 61,02</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-51,95; -8,74</t>
+          <t>-52,55; -10,83</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>61,5; 596,23</t>
+          <t>63,94; 544,49</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_senso_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2A_senso_R-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>0,47</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 5,77</t>
+          <t>-1,44; 2,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 1,91</t>
+          <t>-2,8; -0,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 8,13</t>
+          <t>-1,62; 1,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,15; 2,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,65; 6,52</t>
+          <t>-1,31; 0,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,88; 5,5</t>
+          <t>-0,19; 2,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 3,4</t>
+          <t>-0,18; 2,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 2,74</t>
+          <t>-1,62; 0,03</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,09; 5,04</t>
+          <t>-0,53; 1,53</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>65,07%</t>
+          <t>13,15%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-49,34%</t>
+          <t>-61,13%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>109,22%</t>
+          <t>-1,35%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>114,18%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-14,62%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>81,84%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>65,97%</t>
+          <t>48,12%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>70,14%</t>
+          <t>-45,02%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>230,09%</t>
+          <t>27,38%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,85; 144,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,7; 3,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,93; 109,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,37; 401,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,57; 145,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,6; 328,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,68; 158,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,42; 5,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-43,8; —</t>
+          <t>-26,06; 120,0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,83</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 1,74</t>
+          <t>-1,04; 1,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,1; -0,12</t>
+          <t>-1,57; 0,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 1,3</t>
+          <t>-1,01; 1,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,09; 3,53</t>
+          <t>-0,91; 1,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 0,63</t>
+          <t>-1,59; 0,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 2,95</t>
+          <t>0,03; 2,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 2,2</t>
+          <t>-0,63; 1,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,88; -0,05</t>
+          <t>-1,29; 0,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 1,51</t>
+          <t>-0,24; 1,79</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>9,64%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-63,06%</t>
+          <t>-36,24%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-16,93%</t>
+          <t>28,58%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>141,38%</t>
+          <t>18,73%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-39,51%</t>
+          <t>-28,11%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>78,61%</t>
+          <t>80,48%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>52,92%</t>
+          <t>14,58%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-54,78%</t>
+          <t>-31,8%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>17,29%</t>
+          <t>52,35%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-51,72; 123,06</t>
+          <t>-51,78; 140,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-89,72; -0,9</t>
+          <t>-76,94; 72,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-66,53; 103,22</t>
+          <t>-48,28; 168,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,74; 511,66</t>
+          <t>-41,79; 157,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-88,0; 154,99</t>
+          <t>-70,11; 66,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-33,98; 421,22</t>
+          <t>1,05; 221,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 171,86</t>
+          <t>-32,66; 93,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-79,78; 9,41</t>
+          <t>-62,42; 20,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-33,22; 121,02</t>
+          <t>-11,92; 142,9</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>23,69</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>14,52</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 1,28</t>
+          <t>-1,27; 1,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 0,55</t>
+          <t>-1,47; 0,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 2,24</t>
+          <t>0,88; 4,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 1,69</t>
+          <t>-1,32; 1,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 0,72</t>
+          <t>-2,02; 0,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,64</t>
+          <t>2,09; 58,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 1,17</t>
+          <t>-0,9; 0,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 0,24</t>
+          <t>-1,36; 0,38</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,08</t>
+          <t>2,12; 42,58</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>-8,78%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-36,24%</t>
+          <t>-20,3%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>55,81%</t>
+          <t>197,06%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>27,58%</t>
+          <t>-6,41%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-22,75%</t>
+          <t>-46,49%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>98,43%</t>
+          <t>1494,3%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>19,03%</t>
+          <t>-7,28%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-29,15%</t>
+          <t>-35,48%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>78,2%</t>
+          <t>1055,22%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-51,78; 140,05</t>
+          <t>-74,63; 225,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-76,94; 72,94</t>
+          <t>-84,32; 217,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-26,81; 228,77</t>
+          <t>22,88; 612,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-37,53; 176,01</t>
+          <t>-62,92; 120,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-68,42; 82,92</t>
+          <t>-83,01; 62,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,46; 255,86</t>
+          <t>120,61; 14339,03</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-29,31; 100,42</t>
+          <t>-53,17; 100,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-61,63; 28,54</t>
+          <t>-72,47; 49,8</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>11,54; 182,16</t>
+          <t>134,73; 5662,73</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>15,13</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>9,44</t>
+          <t>0,38</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 1,22</t>
+          <t>-0,87; 1,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 0,96</t>
+          <t>-1,19; 0,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,02; 4,52</t>
+          <t>-0,73; 1,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 1,15</t>
+          <t>-0,65; 2,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 0,31</t>
+          <t>-1,96; 0,16</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,57; 43,07</t>
+          <t>-0,75; 1,6</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 0,81</t>
+          <t>-0,41; 1,36</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 0,38</t>
+          <t>-1,32; 0,23</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,44; 28,86</t>
+          <t>-0,37; 1,23</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-8,78%</t>
+          <t>16,68%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-20,3%</t>
+          <t>-8,67%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>221,31%</t>
+          <t>22,07%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-6,41%</t>
+          <t>33,58%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-46,49%</t>
+          <t>-44,49%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>954,49%</t>
+          <t>21,69%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-7,28%</t>
+          <t>27,06%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-35,48%</t>
+          <t>-30,48%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>686,5%</t>
+          <t>22,54%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-74,63; 225,51</t>
+          <t>-49,0; 167,34</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-84,32; 217,97</t>
+          <t>-62,99; 117,78</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>33,97; 663,33</t>
+          <t>-41,91; 186,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-62,92; 120,68</t>
+          <t>-27,17; 159,06</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-83,01; 62,11</t>
+          <t>-74,89; 17,97</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>135,11; 8095,09</t>
+          <t>-28,9; 116,08</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-53,17; 100,2</t>
+          <t>-21,03; 98,4</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-72,47; 49,8</t>
+          <t>-60,47; 19,35</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>153,34; 3689,8</t>
+          <t>-18,77; 99,96</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>6,62</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>3,75</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 1,5</t>
+          <t>-0,48; 0,78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 0,91</t>
+          <t>-1,12; 0,08</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 1,41</t>
+          <t>-0,04; 1,38</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 2,03</t>
+          <t>-0,16; 1,16</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 0,16</t>
+          <t>-1,19; -0,06</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 1,78</t>
+          <t>1,07; 22,78</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 1,36</t>
+          <t>-0,12; 0,82</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 0,23</t>
+          <t>-0,98; -0,17</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 1,31</t>
+          <t>0,8; 12,88</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>16,68%</t>
+          <t>8,77%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-8,67%</t>
+          <t>-34,42%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>17,92%</t>
+          <t>43,33%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>33,58%</t>
+          <t>32,06%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-44,49%</t>
+          <t>-35,8%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>31,25%</t>
+          <t>399,6%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>27,06%</t>
+          <t>21,05%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-30,48%</t>
+          <t>-35,14%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>27,1%</t>
+          <t>234,06%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-49,0; 167,34</t>
+          <t>-27,2; 62,78</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-62,99; 117,78</t>
+          <t>-59,67; 9,78</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-44,11; 176,84</t>
+          <t>-3,61; 105,32</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-27,17; 159,06</t>
+          <t>-8,45; 84,98</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-74,89; 17,97</t>
+          <t>-59,14; -3,13</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-23,37; 136,75</t>
+          <t>57,98; 1513,5</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-21,03; 98,4</t>
+          <t>-6,74; 58,11</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-60,47; 19,35</t>
+          <t>-53,75; -12,07</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-14,49; 103,92</t>
+          <t>49,15; 910,07</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>0,14</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-0,53</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>0,86</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>0,59</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-0,53</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>4,31</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>0,37</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-0,53</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>2,69</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-0,48; 0,78</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-1,12; 0,08</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>0,2; 1,6</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-0,07; 1,23</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-1,12; -0,02</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>1,31; 14,01</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-0,09; 0,83</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-0,95; -0,16</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>1,07; 8,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>8,77%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-34,42%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>55,57%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>37,21%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-33,3%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>270,23%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>23,48%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-33,83%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>171,41%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-27,2; 62,78</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-59,67; 9,78</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>9,71; 122,96</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-4,73; 93,27</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-57,02; -0,27</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>73,35; 907,13</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-5,35; 61,02</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-52,55; -10,83</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>63,94; 544,49</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P2A_senso_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2A_senso_R-Habitat-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con limitación, discapacidad sensorial</t>
+          <t>Hogares con personas con limitación por discapacidad sensorial</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 2,03</t>
+          <t>-1,34; 2,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,8; -0,16</t>
+          <t>-2,77; -0,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 1,54</t>
+          <t>-1,71; 1,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 2,89</t>
+          <t>-0,06; 3,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 0,88</t>
+          <t>-1,25; 0,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 2,29</t>
+          <t>-0,2; 2,5</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 2,08</t>
+          <t>-0,24; 1,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 0,03</t>
+          <t>-1,63; 0,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 1,53</t>
+          <t>-0,57; 1,45</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-46,85; 144,74</t>
+          <t>-47,39; 129,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-86,7; 3,51</t>
+          <t>-87,77; 8,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-53,93; 109,13</t>
+          <t>-56,76; 121,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-19,37; 401,09</t>
+          <t>-17,13; 485,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-76,57; 145,27</t>
+          <t>-75,48; 182,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-20,6; 328,1</t>
+          <t>-23,61; 402,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-11,68; 158,4</t>
+          <t>-13,33; 153,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-72,42; 5,87</t>
+          <t>-71,43; 10,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-26,06; 120,0</t>
+          <t>-26,81; 111,78</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 1,28</t>
+          <t>-1,02; 1,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 0,55</t>
+          <t>-1,5; 0,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 1,71</t>
+          <t>-1,1; 1,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 1,66</t>
+          <t>-0,92; 1,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 0,64</t>
+          <t>-1,58; 0,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,03; 2,47</t>
+          <t>0,15; 2,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 1,11</t>
+          <t>-0,63; 1,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 0,2</t>
+          <t>-1,27; 0,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 1,79</t>
+          <t>-0,22; 1,75</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-51,78; 140,05</t>
+          <t>-51,79; 157,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-76,94; 72,94</t>
+          <t>-74,25; 78,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-48,28; 168,82</t>
+          <t>-49,07; 187,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-41,79; 157,14</t>
+          <t>-41,28; 142,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-70,11; 66,46</t>
+          <t>-69,13; 64,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,05; 221,38</t>
+          <t>1,68; 213,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-32,66; 93,77</t>
+          <t>-32,92; 94,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-62,42; 20,12</t>
+          <t>-64,27; 23,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-11,92; 142,9</t>
+          <t>-10,37; 149,07</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 1,22</t>
+          <t>-1,23; 1,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 0,96</t>
+          <t>-1,41; 0,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,88; 4,22</t>
+          <t>0,73; 3,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 1,15</t>
+          <t>-1,45; 1,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 0,31</t>
+          <t>-2,0; 0,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,09; 58,87</t>
+          <t>2,1; 55,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 0,81</t>
+          <t>-1,01; 0,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 0,38</t>
+          <t>-1,37; 0,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,12; 42,58</t>
+          <t>2,2; 41,38</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-74,63; 225,51</t>
+          <t>-73,78; 250,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-84,32; 217,97</t>
+          <t>-82,42; 174,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>22,88; 612,92</t>
+          <t>25,43; 740,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-62,92; 120,68</t>
+          <t>-66,68; 155,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-83,01; 62,11</t>
+          <t>-83,87; 49,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>120,61; 14339,03</t>
+          <t>111,06; 7872,46</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-53,17; 100,2</t>
+          <t>-54,67; 82,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-72,47; 49,8</t>
+          <t>-72,23; 51,54</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>134,73; 5662,73</t>
+          <t>144,73; 4912,44</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 1,5</t>
+          <t>-0,89; 1,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 0,91</t>
+          <t>-1,17; 0,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 1,51</t>
+          <t>-0,79; 1,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 2,03</t>
+          <t>-0,71; 2,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 0,16</t>
+          <t>-2,14; 0,08</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 1,6</t>
+          <t>-0,84; 1,6</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 1,36</t>
+          <t>-0,37; 1,4</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 0,23</t>
+          <t>-1,3; 0,23</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 1,23</t>
+          <t>-0,49; 1,2</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-49,0; 167,34</t>
+          <t>-48,02; 143,23</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-62,99; 117,78</t>
+          <t>-63,39; 101,87</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-41,91; 186,0</t>
+          <t>-47,27; 135,02</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-27,17; 159,06</t>
+          <t>-28,65; 155,79</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-74,89; 17,97</t>
+          <t>-76,86; 15,69</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-28,9; 116,08</t>
+          <t>-32,18; 116,16</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-21,03; 98,4</t>
+          <t>-20,43; 111,38</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-60,47; 19,35</t>
+          <t>-60,15; 21,1</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-18,77; 99,96</t>
+          <t>-22,69; 95,84</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 0,78</t>
+          <t>-0,52; 0,73</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 0,08</t>
+          <t>-1,17; 0,05</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 1,38</t>
+          <t>-0,06; 1,35</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 1,16</t>
+          <t>-0,17; 1,18</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,19; -0,06</t>
+          <t>-1,17; -0,07</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,07; 22,78</t>
+          <t>1,09; 23,6</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 0,82</t>
+          <t>-0,11; 0,84</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,98; -0,17</t>
+          <t>-1,0; -0,17</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,8; 12,88</t>
+          <t>0,86; 13,82</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-27,2; 62,78</t>
+          <t>-29,95; 58,24</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-59,67; 9,78</t>
+          <t>-60,36; 7,22</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 105,32</t>
+          <t>-3,67; 102,16</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 84,98</t>
+          <t>-8,83; 84,94</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-59,14; -3,13</t>
+          <t>-57,67; -3,42</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>57,98; 1513,5</t>
+          <t>58,71; 1450,72</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 58,11</t>
+          <t>-6,28; 57,42</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-53,75; -12,07</t>
+          <t>-54,1; -12,03</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>49,15; 910,07</t>
+          <t>53,77; 918,72</t>
         </is>
       </c>
     </row>
